--- a/image/sinequa_report/result statical.xlsx
+++ b/image/sinequa_report/result statical.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\phuockhanhle.github.io\image\sinequa_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6FB837-C8ED-4D28-84E6-9F1597F79289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63C7A80-D71A-4C47-A558-BAF70FF5F28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="183">
   <si>
     <t>Inspec</t>
   </si>
@@ -563,6 +563,18 @@
   <si>
     <t>Splitting long document with normal strategy</t>
   </si>
+  <si>
+    <t>Mettre tous les mots en minuscule</t>
+  </si>
+  <si>
+    <t>Inférence temps sur un document</t>
+  </si>
+  <si>
+    <t>L'algorithme original</t>
+  </si>
+  <si>
+    <t>Augmenter training data en divisant les documents longs</t>
+  </si>
 </sst>
 </file>
 
@@ -891,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1080,11 +1092,19 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1097,20 +1117,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1729,6 +1742,605 @@
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Inference long doc dataset Pubmed (model : combined on 4 dataset + bert base uncased ) at stride = 100 and candidates by passage = 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Precision</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4285F4"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'split long doc'!$A$50:$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100 |  3 | 5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100 |  3 | 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 |  3 | 15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100 |  3 | 20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'split long doc'!$B$50:$B$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.40400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22090000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A6AA-4E49-BF8B-B2759A05AF14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Recall</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="EA4335"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A6AA-4E49-BF8B-B2759A05AF14}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-A6AA-4E49-BF8B-B2759A05AF14}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'split long doc'!$A$50:$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100 |  3 | 5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100 |  3 | 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 |  3 | 15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100 |  3 | 20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'split long doc'!$C$50:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.36899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79300000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A6AA-4E49-BF8B-B2759A05AF14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>F1 score</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FBBC04"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="1"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-A6AA-4E49-BF8B-B2759A05AF14}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A6AA-4E49-BF8B-B2759A05AF14}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-A6AA-4E49-BF8B-B2759A05AF14}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="1"/>
+            <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A6AA-4E49-BF8B-B2759A05AF14}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'split long doc'!$A$50:$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100 |  3 | 5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100 |  3 | 10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100 |  3 | 15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100 |  3 | 20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'split long doc'!$D$50:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.38800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33600000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
+              <c14:invertSolidFillFmt>
+                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                  <a:ln cmpd="sng">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c14:spPr>
+              </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A6AA-4E49-BF8B-B2759A05AF14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1241849150"/>
+        <c:axId val="204647826"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1241849150"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="204647826"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="204647826"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1241849150"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -2056,7 +2668,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2539,7 +3151,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3067,7 +3679,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3596,7 +4208,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4060,7 +4672,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4634,7 +5246,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5098,7 +5710,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5528,7 +6140,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5978,7 +6590,733 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>main metric of each model on 4 free dataset</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graph!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>inspec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>graph!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inspec F1@10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>semeval17 F1@10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kptimes F1@5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pubmed F1@10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>graph!$B$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.52100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2999999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC29-4A83-98D5-2FC5C8703F96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graph!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>semeval17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>graph!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inspec F1@10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>semeval17 F1@10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kptimes F1@5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pubmed F1@10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>graph!$B$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.39800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50749999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC29-4A83-98D5-2FC5C8703F96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graph!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pubmed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>graph!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inspec F1@10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>semeval17 F1@10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kptimes F1@5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pubmed F1@10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>graph!$B$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.127</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.155</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26100000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BC29-4A83-98D5-2FC5C8703F96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graph!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>kptimes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="34A853"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>graph!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inspec F1@10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>semeval17 F1@10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kptimes F1@5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pubmed F1@10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>graph!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-BC29-4A83-98D5-2FC5C8703F96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graph!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Combined dataset</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="FF6D01"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>graph!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>inspec F1@10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>semeval17 F1@10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>kptimes F1@5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>pubmed F1@10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>graph!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30399999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-BC29-4A83-98D5-2FC5C8703F96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="531178265"/>
+        <c:axId val="184817290"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="531178265"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="184817290"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="184817290"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="531178265"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6644,733 +7982,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-FR" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>main metric of each model on 4 free dataset</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>graph!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>inspec</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="4285F4"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>graph!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>inspec F1@10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>semeval17 F1@10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>kptimes F1@5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>pubmed F1@10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>graph!$B$2:$E$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.52100000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.42799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2999999999999999E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BC29-4A83-98D5-2FC5C8703F96}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>graph!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>semeval17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="EA4335"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>graph!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>inspec F1@10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>semeval17 F1@10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>kptimes F1@5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>pubmed F1@10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>graph!$B$3:$E$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.39800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.50749999999999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.112</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.1000000000000003E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BC29-4A83-98D5-2FC5C8703F96}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>graph!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>pubmed</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FBBC04"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>graph!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>inspec F1@10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>semeval17 F1@10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>kptimes F1@5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>pubmed F1@10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>graph!$B$4:$E$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.127</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.155</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.26100000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BC29-4A83-98D5-2FC5C8703F96}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>graph!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>kptimes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="34A853"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>graph!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>inspec F1@10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>semeval17 F1@10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>kptimes F1@5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>pubmed F1@10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>graph!$B$5:$E$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.20899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.38200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.108</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BC29-4A83-98D5-2FC5C8703F96}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>graph!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Combined dataset</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="FF6D01"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>graph!$B$1:$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>inspec F1@10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>semeval17 F1@10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>kptimes F1@5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>pubmed F1@10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>graph!$B$6:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.439</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.501</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.433</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.30399999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BC29-4A83-98D5-2FC5C8703F96}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="531178265"/>
-        <c:axId val="184817290"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="531178265"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="184817290"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="184817290"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="531178265"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7923,7 +8535,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8603,7 +9215,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9073,7 +9685,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9870,7 +10482,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10452,7 +11064,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -14762,36 +15374,75 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="757575"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="fr-FR" b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>Inference long doc dataset Pubmed (model : combined on 4 dataset + bert base uncased ) at stride = 100 and candidates by passage = 3</a:t>
+              <a:rPr lang="en-US"/>
+              <a:t>L'amélioration de</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> F1 score </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -14799,24 +15450,31 @@
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Precision</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$B$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1 score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4285F4"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="1"/>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -14826,15 +15484,28 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr/>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -14844,416 +15515,132 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'split long doc'!$A$50:$A$53</c:f>
+              <c:f>Sheet1!$A$55:$A$57</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>100 |  3 | 5</c:v>
+                  <c:v>L'algorithme original</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100 |  3 | 10</c:v>
+                  <c:v>Augmenter training data en divisant les documents longs</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100 |  3 | 15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100 |  3 | 20</c:v>
+                  <c:v>Mettre tous les mots en minuscule</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'split long doc'!$B$50:$B$53</c:f>
+              <c:f>Sheet1!$B$55:$B$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.40400000000000003</c:v>
+                  <c:v>0.32200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.312</c:v>
+                  <c:v>0.36799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.22090000000000001</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln cmpd="sng">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A6AA-4E49-BF8B-B2759A05AF14}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Recall</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="EA4335"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="1"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-A6AA-4E49-BF8B-B2759A05AF14}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="1"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-A6AA-4E49-BF8B-B2759A05AF14}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'split long doc'!$A$50:$A$53</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100 |  3 | 5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100 |  3 | 10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100 |  3 | 15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100 |  3 | 20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'split long doc'!$C$50:$C$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.36899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.56200000000000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.68899999999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.79300000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln cmpd="sng">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A6AA-4E49-BF8B-B2759A05AF14}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>F1 score</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="FBBC04"/>
-            </a:solidFill>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="1"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="1"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-A6AA-4E49-BF8B-B2759A05AF14}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="1"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-A6AA-4E49-BF8B-B2759A05AF14}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="1"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-A6AA-4E49-BF8B-B2759A05AF14}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="1"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-A6AA-4E49-BF8B-B2759A05AF14}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'split long doc'!$A$50:$A$53</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>100 |  3 | 5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100 |  3 | 10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100 |  3 | 15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>100 |  3 | 20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'split long doc'!$D$50:$D$53</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.372</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.38800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.36899999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33600000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
-              <c14:invertSolidFillFmt>
-                <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                  <a:ln cmpd="sng">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                  </a:ln>
-                </c14:spPr>
-              </c14:invertSolidFillFmt>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-A6AA-4E49-BF8B-B2759A05AF14}"/>
+              <c16:uniqueId val="{00000000-4178-4DAF-BBEE-32B83C56BA4B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1241849150"/>
-        <c:axId val="204647826"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="750923343"/>
+        <c:axId val="750923759"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1241849150"/>
+        <c:axId val="750923343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204647826"/>
+        <c:crossAx val="750923759"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="1"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204647826"/>
+        <c:axId val="750923759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15261,94 +15648,90 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln/>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1241849150"/>
+        <c:crossAx val="750923343"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -15438,6 +15821,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -16986,6 +17409,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -17236,6 +18162,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB8388D-2815-2200-D05B-37D736F25753}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -18004,8 +18966,8 @@
   </sheetPr>
   <dimension ref="A1:AT1027"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="S116" sqref="S116"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -18021,65 +18983,65 @@
   <sheetData>
     <row r="1" spans="1:46">
       <c r="A1" s="1"/>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="119" t="s">
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="120" t="s">
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="121" t="s">
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
+      <c r="S1" s="118"/>
+      <c r="T1" s="118"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="117"/>
-      <c r="AA1" s="117"/>
-      <c r="AB1" s="118"/>
-      <c r="AC1" s="122" t="s">
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="117"/>
-      <c r="AE1" s="117"/>
-      <c r="AF1" s="117"/>
-      <c r="AG1" s="117"/>
-      <c r="AH1" s="117"/>
-      <c r="AI1" s="118"/>
-      <c r="AJ1" s="123" t="s">
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="119"/>
+      <c r="AJ1" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="AK1" s="117"/>
-      <c r="AL1" s="117"/>
-      <c r="AM1" s="117"/>
-      <c r="AN1" s="117"/>
-      <c r="AO1" s="117"/>
-      <c r="AP1" s="118"/>
-      <c r="AQ1" s="124" t="s">
+      <c r="AK1" s="118"/>
+      <c r="AL1" s="118"/>
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="118"/>
+      <c r="AO1" s="118"/>
+      <c r="AP1" s="119"/>
+      <c r="AQ1" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="125"/>
-      <c r="AS1" s="125"/>
-      <c r="AT1" s="125"/>
+      <c r="AR1" s="121"/>
+      <c r="AS1" s="121"/>
+      <c r="AT1" s="121"/>
     </row>
     <row r="2" spans="1:46">
       <c r="A2" s="2"/>
@@ -21585,6 +22547,12 @@
       <c r="AQ53" s="10"/>
     </row>
     <row r="54" spans="1:43">
+      <c r="B54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" t="s">
+        <v>180</v>
+      </c>
       <c r="I54" s="10"/>
       <c r="P54" s="10"/>
       <c r="V54" s="10"/>
@@ -21593,6 +22561,12 @@
       <c r="AQ54" s="10"/>
     </row>
     <row r="55" spans="1:43">
+      <c r="A55" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" s="116">
+        <v>0.32200000000000001</v>
+      </c>
       <c r="I55" s="10"/>
       <c r="P55" s="10"/>
       <c r="V55" s="10"/>
@@ -21601,6 +22575,12 @@
       <c r="AQ55" s="10"/>
     </row>
     <row r="56" spans="1:43">
+      <c r="A56" s="116" t="s">
+        <v>182</v>
+      </c>
+      <c r="B56" s="116">
+        <v>0.36799999999999999</v>
+      </c>
       <c r="I56" s="10"/>
       <c r="P56" s="10"/>
       <c r="V56" s="10"/>
@@ -21609,6 +22589,12 @@
       <c r="AQ56" s="10"/>
     </row>
     <row r="57" spans="1:43">
+      <c r="A57" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" s="116">
+        <v>0.375</v>
+      </c>
       <c r="I57" s="10"/>
       <c r="P57" s="10"/>
       <c r="V57" s="10"/>
@@ -21617,6 +22603,13 @@
       <c r="AQ57" s="10"/>
     </row>
     <row r="58" spans="1:43">
+      <c r="A58" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="B58" s="116">
+        <v>0.375</v>
+      </c>
+      <c r="C58" s="116"/>
       <c r="I58" s="10"/>
       <c r="P58" s="10"/>
       <c r="V58" s="10"/>
@@ -29621,13 +30614,13 @@
       <c r="G1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="126" t="s">
+      <c r="H1" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
       <c r="M1" s="9" t="s">
         <v>65</v>
       </c>
@@ -29929,8 +30922,8 @@
   </sheetPr>
   <dimension ref="A1:AQ71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -29941,52 +30934,52 @@
   <sheetData>
     <row r="1" spans="1:43">
       <c r="A1" s="1"/>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="122" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="119"/>
       <c r="Q1" s="75"/>
       <c r="R1" s="75"/>
       <c r="S1" s="75"/>
-      <c r="T1" s="119" t="s">
+      <c r="T1" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="117"/>
-      <c r="AA1" s="117"/>
-      <c r="AB1" s="118"/>
-      <c r="AC1" s="120" t="s">
+      <c r="U1" s="118"/>
+      <c r="V1" s="118"/>
+      <c r="W1" s="118"/>
+      <c r="X1" s="118"/>
+      <c r="Y1" s="118"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="118"/>
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="AD1" s="117"/>
-      <c r="AE1" s="117"/>
-      <c r="AF1" s="117"/>
-      <c r="AG1" s="117"/>
-      <c r="AH1" s="117"/>
-      <c r="AI1" s="117"/>
-      <c r="AJ1" s="117"/>
-      <c r="AK1" s="117"/>
-      <c r="AL1" s="117"/>
-      <c r="AM1" s="117"/>
-      <c r="AN1" s="117"/>
-      <c r="AO1" s="118"/>
+      <c r="AD1" s="118"/>
+      <c r="AE1" s="118"/>
+      <c r="AF1" s="118"/>
+      <c r="AG1" s="118"/>
+      <c r="AH1" s="118"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="118"/>
+      <c r="AL1" s="118"/>
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="118"/>
+      <c r="AO1" s="119"/>
       <c r="AP1" s="76"/>
       <c r="AQ1" s="76"/>
     </row>
@@ -29997,73 +30990,73 @@
       <c r="B2" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119"/>
       <c r="E2" s="128" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="117"/>
-      <c r="G2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="119"/>
       <c r="H2" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="117"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="127" t="s">
+      <c r="I2" s="118"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="117"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="127" t="s">
+      <c r="L2" s="118"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="117"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="127" t="s">
+      <c r="O2" s="118"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="129" t="s">
         <v>92</v>
       </c>
-      <c r="R2" s="117"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="127" t="s">
+      <c r="R2" s="118"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="129" t="s">
         <v>88</v>
       </c>
-      <c r="U2" s="117"/>
-      <c r="V2" s="118"/>
-      <c r="W2" s="127" t="s">
+      <c r="U2" s="118"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="129" t="s">
         <v>89</v>
       </c>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="118"/>
-      <c r="Z2" s="127" t="s">
+      <c r="X2" s="118"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="AA2" s="117"/>
-      <c r="AB2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="119"/>
       <c r="AC2" s="128" t="s">
         <v>87</v>
       </c>
-      <c r="AD2" s="117"/>
-      <c r="AE2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="119"/>
       <c r="AF2" s="128" t="s">
         <v>94</v>
       </c>
-      <c r="AG2" s="117"/>
-      <c r="AH2" s="118"/>
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="119"/>
       <c r="AI2" s="128" t="s">
         <v>95</v>
       </c>
-      <c r="AJ2" s="117"/>
-      <c r="AK2" s="118"/>
+      <c r="AJ2" s="118"/>
+      <c r="AK2" s="119"/>
       <c r="AL2" s="128" t="s">
         <v>90</v>
       </c>
-      <c r="AM2" s="117"/>
-      <c r="AN2" s="118"/>
+      <c r="AM2" s="118"/>
+      <c r="AN2" s="119"/>
       <c r="AO2" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="AP2" s="117"/>
-      <c r="AQ2" s="118"/>
+      <c r="AP2" s="118"/>
+      <c r="AQ2" s="119"/>
     </row>
     <row r="3" spans="1:43">
       <c r="A3" s="2"/>
@@ -31087,51 +32080,51 @@
       <c r="P27" s="21"/>
     </row>
     <row r="28" spans="1:43">
-      <c r="A28" s="129" t="s">
+      <c r="A28" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="130" t="s">
+      <c r="B28" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="125"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="125"/>
-      <c r="F28" s="125"/>
-      <c r="G28" s="125"/>
-      <c r="H28" s="130" t="s">
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="121"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="131" t="s">
         <v>117</v>
       </c>
-      <c r="I28" s="125"/>
-      <c r="J28" s="125"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="125"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="121"/>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
     </row>
     <row r="29" spans="1:43">
-      <c r="A29" s="125"/>
+      <c r="A29" s="121"/>
       <c r="B29" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="117"/>
-      <c r="D29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="119"/>
       <c r="E29" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="117"/>
-      <c r="G29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="119"/>
       <c r="H29" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="117"/>
-      <c r="J29" s="118"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="119"/>
       <c r="K29" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="L29" s="117"/>
-      <c r="M29" s="118"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="119"/>
       <c r="N29" s="90"/>
       <c r="O29" s="90"/>
       <c r="P29" s="90"/>
@@ -31140,7 +32133,7 @@
       <c r="S29" s="92"/>
     </row>
     <row r="30" spans="1:43">
-      <c r="A30" s="125"/>
+      <c r="A30" s="121"/>
       <c r="B30" s="93" t="s">
         <v>96</v>
       </c>
@@ -32231,26 +33224,26 @@
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="120" t="s">
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="119"/>
     </row>
     <row r="2" spans="1:17">
       <c r="B2" s="6" t="s">
@@ -32490,7 +33483,7 @@
     <col min="1" max="1" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" ht="12.75">
       <c r="A1" s="41" t="s">
         <v>147</v>
       </c>
@@ -32509,7 +33502,7 @@
       <c r="N1" s="41"/>
       <c r="O1" s="41"/>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" ht="12.75">
       <c r="A2" s="41" t="s">
         <v>148</v>
       </c>
@@ -32528,37 +33521,37 @@
       <c r="N2" s="41"/>
       <c r="O2" s="41"/>
     </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="126" t="s">
+    <row r="3" spans="1:31" ht="12.75">
+      <c r="A3" s="127" t="s">
         <v>149</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="126" t="s">
+      <c r="C3" s="133"/>
+      <c r="D3" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="132"/>
-      <c r="F3" s="126" t="s">
+      <c r="E3" s="133"/>
+      <c r="F3" s="127" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="132"/>
-      <c r="H3" s="126" t="s">
+      <c r="G3" s="133"/>
+      <c r="H3" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="I3" s="132"/>
-      <c r="J3" s="126" t="s">
+      <c r="I3" s="133"/>
+      <c r="J3" s="127" t="s">
         <v>153</v>
       </c>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-    </row>
-    <row r="4" spans="1:31">
-      <c r="A4" s="125"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="127"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+    </row>
+    <row r="4" spans="1:31" ht="12.75">
+      <c r="A4" s="121"/>
       <c r="B4" s="11" t="s">
         <v>154</v>
       </c>
@@ -32593,7 +33586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" ht="12.75">
       <c r="A5" s="8" t="s">
         <v>156</v>
       </c>
@@ -32650,7 +33643,7 @@
       <c r="AD5" s="21"/>
       <c r="AE5" s="21"/>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:31" ht="12.75">
       <c r="A6" s="8" t="s">
         <v>157</v>
       </c>
@@ -32707,7 +33700,7 @@
       <c r="AD6" s="21"/>
       <c r="AE6" s="21"/>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:31" ht="12.75">
       <c r="A7" s="8" t="s">
         <v>158</v>
       </c>
@@ -32764,7 +33757,7 @@
       <c r="AD7" s="21"/>
       <c r="AE7" s="21"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:31" ht="12.75">
       <c r="A8" s="8" t="s">
         <v>159</v>
       </c>
@@ -32821,7 +33814,7 @@
       <c r="AD8" s="21"/>
       <c r="AE8" s="21"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:31" ht="12.75">
       <c r="A9" s="8" t="s">
         <v>160</v>
       </c>
